--- a/admin/admission_list.xlsx
+++ b/admin/admission_list.xlsx
@@ -15,54 +15,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="16">
-  <si>
-    <t>ADMISSION NUMBER</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="10">
   <si>
     <t>BECE INDEX NUMBER</t>
   </si>
   <si>
+    <t>CODE</t>
+  </si>
+  <si>
     <t>FIRST NAME</t>
   </si>
   <si>
-    <t>MIDDLE NAME</t>
-  </si>
-  <si>
-    <t>LAST NAME</t>
-  </si>
-  <si>
-    <t>HOUSE</t>
-  </si>
-  <si>
-    <t>PROGRAMME</t>
-  </si>
-  <si>
-    <t>GENDER</t>
-  </si>
-  <si>
-    <t>BA004</t>
-  </si>
-  <si>
-    <t>000109105822</t>
-  </si>
-  <si>
-    <t>ZIMAL</t>
-  </si>
-  <si>
-    <t>FRANCES</t>
-  </si>
-  <si>
-    <t>ANGELINA2</t>
-  </si>
-  <si>
-    <t>CLIFFORD</t>
-  </si>
-  <si>
-    <t>GENERAL ARTS</t>
-  </si>
-  <si>
-    <t>Female</t>
+    <t>000111800323</t>
+  </si>
+  <si>
+    <t>AHMED</t>
+  </si>
+  <si>
+    <t>050103204623</t>
+  </si>
+  <si>
+    <t>SARPONG</t>
+  </si>
+  <si>
+    <t>010356300223</t>
+  </si>
+  <si>
+    <t>ADU111</t>
+  </si>
+  <si>
+    <t>GLADYS</t>
   </si>
 </sst>
 </file>
@@ -402,7 +384,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -410,17 +392,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="19.995" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="21.138" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="8.141" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="12.854" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="13.997" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="11.711" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="10.569" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="15.282" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.141" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,46 +407,32 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
+      <c r="B4" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C4" t="s">
         <v>9</v>
-      </c>
-      <c r="C2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>
